--- a/biology/Botanique/Charles_Ross/Charles_Ross.xlsx
+++ b/biology/Botanique/Charles_Ross/Charles_Ross.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charles Ross est un cultivar de pommier domestique.
 </t>
@@ -511,10 +523,12 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette variété a été obtenue et exposée pour la première fois en 1890, en Angleterre, dans le Berkshire.
-Le cultivar Charles Ross est nommé en hommage au chef jardinier de Welford Park, dans le Berkshire, dont c'est sans doute la meilleure obtention[1].
+Le cultivar Charles Ross est nommé en hommage au chef jardinier de Welford Park, dans le Berkshire, dont c'est sans doute la meilleure obtention.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Utilisations: à croquer, à cuire, à cidre
 Chair: blanche</t>
@@ -574,7 +590,9 @@
           <t>Parenté</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Obtenu par croisement naturel: Peasgood Nonsuch x Cox's Orange Pippin
 </t>
@@ -605,10 +623,12 @@
           <t>Pollinisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Variété diploïde.
-Groupe de floraison: B[2].</t>
+Groupe de floraison: B.</t>
         </is>
       </c>
     </row>
@@ -636,7 +656,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>porte-greffe nanifiant: M26 pour un demi-tige</t>
         </is>
